--- a/biology/Zoologie/Gobemouche_mésange/Gobemouche_mésange.xlsx
+++ b/biology/Zoologie/Gobemouche_mésange/Gobemouche_mésange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_m%C3%A9sange</t>
+          <t>Gobemouche_mésange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraseria plumbea
-Le Gobemouche mésange[1] (Fraseria plumbea) est une espèce d'oiseaux de la famille des Muscicapidae. Il est largement répandu à travers l'Afrique subsaharienne mais inégalement distribué.
+Le Gobemouche mésange (Fraseria plumbea) est une espèce d'oiseaux de la famille des Muscicapidae. Il est largement répandu à travers l'Afrique subsaharienne mais inégalement distribué.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_m%C3%A9sange</t>
+          <t>Gobemouche_mésange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Afrique subsaharienne (rare en Afrique australe).
 Son habitat naturel est à la fois la forêt tropophile et la forêt tropicale.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_m%C3%A9sange</t>
+          <t>Gobemouche_mésange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oiseau est un gobemouche de couleur grise, reconnaissable à sa queue noire à rectrices externes blanches.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gobemouche_m%C3%A9sange</t>
+          <t>Gobemouche_mésange</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement aux gobemouches qui effectuent de courtes envolées pour attraper des mouches, le Gobemouche mésange se nourrit à la manière d'une fauvette préférant voleter à travers le feuillage à la recherche d'insectes. On peut l'apercevoir se pencher vers l'avant avec la queue relevée et déployée en éventail : ce comportement pourrait avoir pour effet de lever les insectes les plus proches[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux gobemouches qui effectuent de courtes envolées pour attraper des mouches, le Gobemouche mésange se nourrit à la manière d'une fauvette préférant voleter à travers le feuillage à la recherche d'insectes. On peut l'apercevoir se pencher vers l'avant avec la queue relevée et déployée en éventail : ce comportement pourrait avoir pour effet de lever les insectes les plus proches.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gobemouche_m%C3%A9sange</t>
+          <t>Gobemouche_mésange</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le détecte dans les taillis et les lisières forestières en le repérant grâce à son chant caractéristique, un « ouiiili ouiirr » triste[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le détecte dans les taillis et les lisières forestières en le repérant grâce à son chant caractéristique, un « ouiiili ouiirr » triste.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gobemouche_m%C3%A9sange</t>
+          <t>Gobemouche_mésange</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1 janvier 2024)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1 janvier 2024) :
 Fraseria plumbea catoleucus (Reichenow, 1900)
 F. p. orientalis (Reichenow &amp; Neumann, 1895)
 F. p. plumbea (Hartlaub, 1858)</t>
